--- a/medicine/Handicap/Section_d’éducation_spécialisée/Section_d’éducation_spécialisée.xlsx
+++ b/medicine/Handicap/Section_d’éducation_spécialisée/Section_d’éducation_spécialisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Section_d%E2%80%99%C3%A9ducation_sp%C3%A9cialis%C3%A9e</t>
+          <t>Section_d’éducation_spécialisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sections d'éducation spécialisée (SES) sont créées en France en 1965 pour la scolarisation des enfants inadaptés[1] en collège d'enseignement secondaire (CES). Elles assuraient la continuité des classes de perfectionnement, instituées en école élémentaire. Elles seront renommées sections d'enseignement général et professionnel adapté (SEGPA) en 1989[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sections d'éducation spécialisée (SES) sont créées en France en 1965 pour la scolarisation des enfants inadaptés en collège d'enseignement secondaire (CES). Elles assuraient la continuité des classes de perfectionnement, instituées en école élémentaire. Elles seront renommées sections d'enseignement général et professionnel adapté (SEGPA) en 1989.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Section_d%E2%80%99%C3%A9ducation_sp%C3%A9cialis%C3%A9e</t>
+          <t>Section_d’éducation_spécialisée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première évocation des sections d'éducation spécialisée est faite en 1965[3], pour un ensemble de classes, de la 6e à la 3e, destinées aux enfants déficients sensoriels et infirmes moteurs. Ces classes devaient être organisées dans un CES sur 4 (de type normaux) de 600 élèves, soit en zone urbaine d’au moins 150000 à 200 000 habitants. C’est le prolongement de la scolarité obligatoire qui conduit à créer les sections d’éducation spécialisée à partir de 1967 pour offrir aux élèves des classes de perfectionnement une poursuite d’études vers une formation professionnelle[4].
-En 1967[5], sont précisées les conditions d’ouverture et de fonctionnement des SES, et rendent ces classes plus spécialisées aux élèves déficients intellectuels légers des deux sexes.
-Les sections d’éducation spécialisée sont transformées en sections d’enseignement général et professionnel adapté à partir de 1996[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première évocation des sections d'éducation spécialisée est faite en 1965, pour un ensemble de classes, de la 6e à la 3e, destinées aux enfants déficients sensoriels et infirmes moteurs. Ces classes devaient être organisées dans un CES sur 4 (de type normaux) de 600 élèves, soit en zone urbaine d’au moins 150000 à 200 000 habitants. C’est le prolongement de la scolarité obligatoire qui conduit à créer les sections d’éducation spécialisée à partir de 1967 pour offrir aux élèves des classes de perfectionnement une poursuite d’études vers une formation professionnelle.
+En 1967, sont précisées les conditions d’ouverture et de fonctionnement des SES, et rendent ces classes plus spécialisées aux élèves déficients intellectuels légers des deux sexes.
+Les sections d’éducation spécialisée sont transformées en sections d’enseignement général et professionnel adapté à partir de 1996.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Section_d%E2%80%99%C3%A9ducation_sp%C3%A9cialis%C3%A9e</t>
+          <t>Section_d’éducation_spécialisée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Organisation et fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sections d'éducation spécialisée accueillaient 90 élèves (ce nombre est porté à 96 par la circulaire du 28 mai 1971[6]), répartis en groupe de 15 élèves (puis 16) en fonction de leur âge et de leur niveau (12/13 ans, 13/14 ans, 14/15 ans).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sections d'éducation spécialisée accueillaient 90 élèves (ce nombre est porté à 96 par la circulaire du 28 mai 1971), répartis en groupe de 15 élèves (puis 16) en fonction de leur âge et de leur niveau (12/13 ans, 13/14 ans, 14/15 ans).
 Elles assuraient un enseignement général ainsi qu'une formation pré-professionnelle (pour les élèves de moins de 14 ans) à professionnelle (pour les élèves de plus de 14 ans), assurant ainsi une spécialisation plus ou moins étendue de l'élève à sa sortie.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Section_d%E2%80%99%C3%A9ducation_sp%C3%A9cialis%C3%A9e</t>
+          <t>Section_d’éducation_spécialisée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Programmes et projets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation des élèves de moins de 14 ans comprenait, pour 26 h de cours par semaine :
 de la lecture et de l'élocution,
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Section_d%E2%80%99%C3%A9ducation_sp%C3%A9cialis%C3%A9e</t>
+          <t>Section_d’éducation_spécialisée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,9 +647,11 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>122 SES accueillaient, en France métropolitaine, 6533 élèves (2976 filles et 3557 garçons), à la rentrée scolaire 1968-1969[7].1427 SES scolarisaient 112424 élèves (47626 filles et 64798 garçons) à la rentrée 1985-1986, avec de fortes disparités d'implantation à la fois dans le temps et territoriale.L'étude des origines des élèves de SES indique que :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>122 SES accueillaient, en France métropolitaine, 6533 élèves (2976 filles et 3557 garçons), à la rentrée scolaire 1968-1969.1427 SES scolarisaient 112424 élèves (47626 filles et 64798 garçons) à la rentrée 1985-1986, avec de fortes disparités d'implantation à la fois dans le temps et territoriale.L'étude des origines des élèves de SES indique que :
 plus de la moitié des effectifs correspond à des enfants d'ouvriers et plus de 20% sont des enfants d'inactifs,
 près de la moitié sont issus de familles nombreuses (+ de 5 enfants)
 65% ont été scolarisés en classe de perfectionnement
